--- a/Extraccion/outputs/Registros_Fuente_Regalias.xlsx
+++ b/Extraccion/outputs/Registros_Fuente_Regalias.xlsx
@@ -744,13 +744,13 @@
         <v>4929335426</v>
       </c>
       <c r="G5" t="n">
-        <v>4649948567</v>
+        <v>4656907814</v>
       </c>
       <c r="H5" t="n">
-        <v>279386859</v>
+        <v>272427612</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9433215971616861</v>
+        <v>0.9447333994430429</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
